--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\issue_certificate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B2416-C112-462A-973C-1373B1A1C7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD6022-F73C-4471-94E4-7FBC198DA83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>adarsh</t>
-  </si>
-  <si>
-    <t>Akash</t>
-  </si>
-  <si>
-    <t>adarshsavaligi@gmail.com</t>
-  </si>
-  <si>
-    <t>adarshsavaligi1@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>swathi</t>
   </si>
@@ -45,9 +33,6 @@
     <t>SIT</t>
   </si>
   <si>
-    <t>swathishergar2003@gmail.com</t>
-  </si>
-  <si>
     <t>Annapoorna</t>
   </si>
   <si>
@@ -58,6 +43,9 @@
   </si>
   <si>
     <t>mychandrashekhar@gmail.com</t>
+  </si>
+  <si>
+    <t>swathisherigar2003@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -386,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,21 +387,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -424,41 +412,17 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{52101B7F-C242-4A4D-8ABF-819C9762D350}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{8CED586E-002B-478C-ACD4-21C73E149933}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{B293E302-2325-4DA2-A43E-1197C236563D}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{C4CA1FCA-7D8B-48A3-9A41-17C06CFF48FD}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{EA490768-A65F-4E32-A2BF-05B74F2789F3}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{B293E302-2325-4DA2-A43E-1197C236563D}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{C4CA1FCA-7D8B-48A3-9A41-17C06CFF48FD}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{EA490768-A65F-4E32-A2BF-05B74F2789F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
